--- a/Technical things.xlsx
+++ b/Technical things.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\03-29-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDBA3F1-6836-423B-92B1-6F24A2BBE0CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7C7F3-7F83-487A-B164-D50A8D9D5C64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Sr No.</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>ASP .Net MVC</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +480,9 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -535,16 +540,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -553,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -562,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -571,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -580,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -589,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -598,18 +605,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Technical things.xlsx
+++ b/Technical things.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\03-29-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7C7F3-7F83-487A-B164-D50A8D9D5C64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD93224-BCFF-4EDB-9390-3D34DA398AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Sr No.</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,9 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
